--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,7 +424,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -426,7 +432,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -434,55 +440,55 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26.2169480385347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26.12018204701069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.56389055882488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994146108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -490,44 +496,44 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.5626640325822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.19167637503946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309123408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -551,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -559,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -567,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -583,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -591,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -599,7 +605,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>21.14331917976497</v>
+      </c>
+      <c r="C2">
+        <v>10.92438226347148</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7.123019771446184</v>
+      </c>
       <c r="F2">
         <v>30.27884324296193</v>
+      </c>
+      <c r="G2">
+        <v>2.073053342860805</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7.143684767423311</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.87494098389677</v>
+      </c>
+      <c r="O2">
+        <v>15.12382791420528</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>19.70414093352639</v>
+      </c>
+      <c r="C3">
+        <v>10.51817350584814</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7.12803986451376</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.078761181007148</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6.893590597525104</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.02155409782613</v>
+      </c>
+      <c r="O3">
+        <v>14.94029811703063</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>18.76861093025975</v>
+      </c>
+      <c r="C4">
+        <v>10.26037520366364</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7.136240934913716</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.08237109637117</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.739143291161138</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.11536294976197</v>
+      </c>
+      <c r="O4">
+        <v>14.84479332507892</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>18.3742486511883</v>
+      </c>
+      <c r="C5">
+        <v>10.1533110448917</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7.140827917182834</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
+      </c>
+      <c r="G5">
+        <v>2.083869359245326</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.676069820044744</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.15453467891431</v>
+      </c>
+      <c r="O5">
+        <v>14.81007098006581</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>18.30796990444905</v>
+      </c>
+      <c r="C6">
+        <v>10.13541491874959</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7.141663542567891</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.1201820470107</v>
+      </c>
+      <c r="G6">
+        <v>2.084119807447495</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.665591094638653</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.16109589756712</v>
+      </c>
+      <c r="O6">
+        <v>14.8045549208869</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>18.76334567942378</v>
+      </c>
+      <c r="C7">
+        <v>10.25893929397034</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7.136297811399571</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617556</v>
+      </c>
+      <c r="G7">
+        <v>2.082391191437162</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.738293084385106</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.11588742202638</v>
+      </c>
+      <c r="O7">
+        <v>14.84430822987673</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>20.65780495183633</v>
+      </c>
+      <c r="C8">
+        <v>10.78611713980106</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7.123662966836021</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
+      </c>
+      <c r="G8">
+        <v>2.07499999933274</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7.057687442405927</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.92470139116186</v>
+      </c>
+      <c r="O8">
+        <v>15.05691016138586</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>23.96515694241749</v>
+      </c>
+      <c r="C9">
+        <v>11.7496844433694</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7.141381034687775</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
+      </c>
+      <c r="G9">
+        <v>2.061306718891744</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7.673491441224453</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.58030561266808</v>
+      </c>
+      <c r="O9">
+        <v>15.61497152069806</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>26.15209367263749</v>
+      </c>
+      <c r="C10">
+        <v>12.41071790373429</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7.182862945699144</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847217</v>
+      </c>
+      <c r="G10">
+        <v>2.051683203652308</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>8.115474578938453</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.34666230300929</v>
+      </c>
+      <c r="O10">
+        <v>16.11658860992324</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>27.09548666569466</v>
+      </c>
+      <c r="C11">
+        <v>12.70061830414511</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7.208456330213139</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
+      </c>
+      <c r="G11">
+        <v>2.047387884239525</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>8.31360630802998</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.24480038350271</v>
+      </c>
+      <c r="O11">
+        <v>16.36560331118542</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>27.44543226801227</v>
+      </c>
+      <c r="C12">
+        <v>12.80880205016231</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>7.219158392030739</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>2.045772132030509</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>8.388168733938329</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.20688675616872</v>
+      </c>
+      <c r="O12">
+        <v>16.46295392392183</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>27.37038807148387</v>
+      </c>
+      <c r="C13">
+        <v>12.78557425064478</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>7.216807883721252</v>
+      </c>
       <c r="F13">
         <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>2.046119651041582</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>8.372131711213706</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.21502240542892</v>
+      </c>
+      <c r="O13">
+        <v>16.44185102652213</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>27.12442253817594</v>
+      </c>
+      <c r="C14">
+        <v>12.70955081992499</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7.209316297010732</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
+      </c>
+      <c r="G14">
+        <v>2.047254745438578</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>8.319750161870459</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.24166784826854</v>
+      </c>
+      <c r="O14">
+        <v>16.37355088151982</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>26.97281439718171</v>
+      </c>
+      <c r="C15">
+        <v>12.66277546243767</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>7.204860355212039</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.96319309123409</v>
+      </c>
+      <c r="G15">
+        <v>2.047951395961509</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>8.287603123726802</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.25807555675017</v>
+      </c>
+      <c r="O15">
+        <v>16.33211444314713</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>26.0894139570764</v>
+      </c>
+      <c r="C16">
+        <v>12.39155102778475</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>7.181329383524209</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>37.63463543028809</v>
+      </c>
+      <c r="G16">
+        <v>2.051965482928749</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>8.102463252602384</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.35341013266505</v>
+      </c>
+      <c r="O16">
+        <v>16.10073924781924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>25.53436888188643</v>
+      </c>
+      <c r="C17">
+        <v>12.2223633474767</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7.168647023539496</v>
+      </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>2.054448382483133</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.988101233793627</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.41304317644524</v>
+      </c>
+      <c r="O17">
+        <v>15.9641770469572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>25.21027201978645</v>
+      </c>
+      <c r="C18">
+        <v>12.12403570026095</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7.161982691133647</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>36.31710943239618</v>
+      </c>
+      <c r="G18">
+        <v>2.055884311065975</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>7.922049662714848</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.44775730612178</v>
+      </c>
+      <c r="O18">
+        <v>15.88758743557741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>25.09970241725044</v>
+      </c>
+      <c r="C19">
+        <v>12.09057066850671</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7.159833167358394</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494150058</v>
+      </c>
+      <c r="G19">
+        <v>2.056371867918509</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>7.899640258464006</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.45958150416347</v>
+      </c>
+      <c r="O19">
+        <v>15.86198974704923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>25.59395556676828</v>
+      </c>
+      <c r="C20">
+        <v>12.24047907996356</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>7.169931538906135</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731404</v>
+      </c>
+      <c r="G20">
+        <v>2.054183270641893</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>8.000303930492505</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.40665205243515</v>
+      </c>
+      <c r="O20">
+        <v>15.97851129322655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>27.19686577349875</v>
+      </c>
+      <c r="C21">
+        <v>12.73192432089994</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>7.211488990134702</v>
+      </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>2.046921056704064</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>8.33514884433801</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.23382334087501</v>
+      </c>
+      <c r="O21">
+        <v>16.39352896495917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>28.20197948615596</v>
+      </c>
+      <c r="C22">
+        <v>13.04380125576147</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>7.244558507814173</v>
+      </c>
       <c r="F22">
         <v>40.81974568026789</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>2.042237130297161</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>8.551260169209437</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.1247259367691</v>
+      </c>
+      <c r="O22">
+        <v>16.68259184642039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>27.66938334174343</v>
+      </c>
+      <c r="C23">
+        <v>12.87820984169765</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>7.22635368265188</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038419</v>
+      </c>
+      <c r="G23">
+        <v>2.044731698587033</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>8.436179633590367</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.18259182370173</v>
+      </c>
+      <c r="O23">
+        <v>16.52666474771992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>25.56703198959081</v>
+      </c>
+      <c r="C24">
+        <v>12.23229225385691</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>7.169348860086711</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.8512191057543</v>
+      </c>
+      <c r="G24">
+        <v>2.054303101223134</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>7.994788032607457</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.40954014102282</v>
+      </c>
+      <c r="O24">
+        <v>15.97202479901481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>23.11351254238295</v>
+      </c>
+      <c r="C25">
+        <v>11.49699843346846</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>7.1317731897743</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>2.064930476235391</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>7.508477303854328</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.67013477473404</v>
+      </c>
+      <c r="O25">
+        <v>15.44826311029927</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14331917976497</v>
+        <v>16.15576752824467</v>
       </c>
       <c r="C2">
-        <v>10.92438226347148</v>
+        <v>9.920862905568981</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.123019771446184</v>
+        <v>11.72031136012316</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.073053342860805</v>
+        <v>3.631885520300537</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.143684767423311</v>
+        <v>9.712552853149091</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.87494098389677</v>
+        <v>17.35157256621244</v>
       </c>
       <c r="O2">
-        <v>15.12382791420528</v>
+        <v>22.20859199889635</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70414093352639</v>
+        <v>15.67285348670882</v>
       </c>
       <c r="C3">
-        <v>10.51817350584814</v>
+        <v>9.771982714641043</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.12803986451376</v>
+        <v>11.75636112744111</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.078761181007148</v>
+        <v>3.634048106775754</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.893590597525104</v>
+        <v>9.68824903374883</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.02155409782613</v>
+        <v>17.4032326530195</v>
       </c>
       <c r="O3">
-        <v>14.94029811703063</v>
+        <v>22.27284906520507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76861093025975</v>
+        <v>15.37117320656519</v>
       </c>
       <c r="C4">
-        <v>10.26037520366364</v>
+        <v>9.678735950586361</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.136240934913716</v>
+        <v>11.78056535155947</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.08237109637117</v>
+        <v>3.635446395201351</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.739143291161138</v>
+        <v>9.675024872996669</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.11536294976197</v>
+        <v>17.4368938538647</v>
       </c>
       <c r="O4">
-        <v>14.84479332507892</v>
+        <v>22.31849814783111</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.3742486511883</v>
+        <v>15.24712734068469</v>
       </c>
       <c r="C5">
-        <v>10.1533110448917</v>
+        <v>9.640304344299116</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.140827917182834</v>
+        <v>11.79094878139155</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.083869359245326</v>
+        <v>3.636033981710043</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.676069820044744</v>
+        <v>9.670066858221071</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.15453467891431</v>
+        <v>17.45110024810711</v>
       </c>
       <c r="O5">
-        <v>14.81007098006581</v>
+        <v>22.33865207569072</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30796990444905</v>
+        <v>15.22646849594758</v>
       </c>
       <c r="C6">
-        <v>10.13541491874959</v>
+        <v>9.633897508463903</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.141663542567891</v>
+        <v>11.79270433787227</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.084119807447495</v>
+        <v>3.636132625102537</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.665591094638653</v>
+        <v>9.669269716163917</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.16109589756712</v>
+        <v>17.45348878195582</v>
       </c>
       <c r="O6">
-        <v>14.8045549208869</v>
+        <v>22.34209214118792</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76334567942378</v>
+        <v>15.36950450765208</v>
       </c>
       <c r="C7">
-        <v>10.25893929397034</v>
+        <v>9.678219362879688</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.136297811399571</v>
+        <v>11.78070328113402</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.082391191437162</v>
+        <v>3.635454247561832</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.738293084385106</v>
+        <v>9.674956257825491</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.11588742202638</v>
+        <v>17.43708346435701</v>
       </c>
       <c r="O7">
-        <v>14.84430822987673</v>
+        <v>22.31876367708622</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65780495183633</v>
+        <v>15.99044218978649</v>
       </c>
       <c r="C8">
-        <v>10.78611713980106</v>
+        <v>9.869926333877933</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.123662966836021</v>
+        <v>11.73231156404388</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.07499999933274</v>
+        <v>3.632616592245702</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.057687442405927</v>
+        <v>9.703822789181855</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.92470139116186</v>
+        <v>17.36898251837905</v>
       </c>
       <c r="O8">
-        <v>15.05691016138586</v>
+        <v>22.22945843270647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.96515694241749</v>
+        <v>17.15936900668395</v>
       </c>
       <c r="C9">
-        <v>11.7496844433694</v>
+        <v>10.23011502069406</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.141381034687775</v>
+        <v>11.65385309216506</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.061306718891744</v>
+        <v>3.627608358593055</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.673491441224453</v>
+        <v>9.773722445019393</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.58030561266808</v>
+        <v>17.25080183104059</v>
       </c>
       <c r="O9">
-        <v>15.61497152069806</v>
+        <v>22.10374819900287</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.15209367263749</v>
+        <v>17.97911894639157</v>
       </c>
       <c r="C10">
-        <v>12.41071790373429</v>
+        <v>10.48361041841379</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.182862945699144</v>
+        <v>11.6062527306</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.051683203652308</v>
+        <v>3.624264362688184</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.115474578938453</v>
+        <v>9.832912350592995</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.34666230300929</v>
+        <v>17.17328456520564</v>
       </c>
       <c r="O10">
-        <v>16.11658860992324</v>
+        <v>22.04185015441163</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.09548666569466</v>
+        <v>18.3418640428329</v>
       </c>
       <c r="C11">
-        <v>12.70061830414511</v>
+        <v>10.59620989246014</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.208456330213139</v>
+        <v>11.58678330432595</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.047387884239525</v>
+        <v>3.6228151793917</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.31360630802998</v>
+        <v>9.861476087574347</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.24480038350271</v>
+        <v>17.14002985199509</v>
       </c>
       <c r="O11">
-        <v>16.36560331118542</v>
+        <v>22.0203682983644</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.44543226801227</v>
+        <v>18.47764137718035</v>
       </c>
       <c r="C12">
-        <v>12.80880205016231</v>
+        <v>10.6384336906295</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.219158392030739</v>
+        <v>11.57972517747155</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.045772132030509</v>
+        <v>3.622276708562183</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.388168733938329</v>
+        <v>9.872521969165886</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.20688675616872</v>
+        <v>17.12772510623854</v>
       </c>
       <c r="O12">
-        <v>16.46295392392183</v>
+        <v>22.01319802132613</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.37038807148387</v>
+        <v>18.44847170480014</v>
       </c>
       <c r="C13">
-        <v>12.78557425064478</v>
+        <v>10.62935888259633</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.216807883721252</v>
+        <v>11.58123127626395</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.046119651041582</v>
+        <v>3.622392220474278</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.372131711213706</v>
+        <v>9.870132938429874</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.21502240542892</v>
+        <v>17.13036235122462</v>
       </c>
       <c r="O13">
-        <v>16.44185102652213</v>
+        <v>22.01469930986444</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.12442253817594</v>
+        <v>18.35306698854416</v>
       </c>
       <c r="C14">
-        <v>12.70955081992499</v>
+        <v>10.59969212657064</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.209316297010732</v>
+        <v>11.58619632208673</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.047254745438578</v>
+        <v>3.622770672875829</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.319750161870459</v>
+        <v>9.86238027726151</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.24166784826854</v>
+        <v>17.1390117632535</v>
       </c>
       <c r="O14">
-        <v>16.37355088151982</v>
+        <v>22.01975904297067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.97281439718171</v>
+        <v>18.29441876735857</v>
       </c>
       <c r="C15">
-        <v>12.66277546243767</v>
+        <v>10.58146560691394</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.204860355212039</v>
+        <v>11.58927852857412</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.047951395961509</v>
+        <v>3.62300382615839</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.287603123726802</v>
+        <v>9.857661237972652</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.25807555675017</v>
+        <v>17.14434727577392</v>
       </c>
       <c r="O15">
-        <v>16.33211444314713</v>
+        <v>22.02298399689547</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.0894139570764</v>
+        <v>17.95519721768602</v>
       </c>
       <c r="C16">
-        <v>12.39155102778475</v>
+        <v>10.47619498619731</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.181329383524209</v>
+        <v>11.60756909314955</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.051965482928749</v>
+        <v>3.624360514893787</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.102463252602384</v>
+        <v>9.831078086915003</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.35341013266505</v>
+        <v>17.1754981906053</v>
       </c>
       <c r="O16">
-        <v>16.10073924781924</v>
+        <v>22.04338877230596</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.53436888188643</v>
+        <v>17.74439972444802</v>
       </c>
       <c r="C17">
-        <v>12.2223633474767</v>
+        <v>10.41090120647135</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.168647023539496</v>
+        <v>11.61934950958955</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.054448382483133</v>
+        <v>3.625211207305802</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.988101233793627</v>
+        <v>9.815185448975198</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.41304317644524</v>
+        <v>17.1951221336526</v>
       </c>
       <c r="O17">
-        <v>15.9641770469572</v>
+        <v>22.05761962391168</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.21027201978645</v>
+        <v>17.62220458692905</v>
       </c>
       <c r="C18">
-        <v>12.12403570026095</v>
+        <v>10.37309161794066</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.161982691133647</v>
+        <v>11.626330857952</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.055884311065975</v>
+        <v>3.625707284797877</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.922049662714848</v>
+        <v>9.806198982674061</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.44775730612178</v>
+        <v>17.20659837545528</v>
       </c>
       <c r="O18">
-        <v>15.88758743557741</v>
+        <v>22.06643296385602</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.09970241725044</v>
+        <v>17.58067226922737</v>
       </c>
       <c r="C19">
-        <v>12.09057066850671</v>
+        <v>10.36024702509129</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.159833167358394</v>
+        <v>11.62872991478342</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.056371867918509</v>
+        <v>3.625876414488105</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.899640258464006</v>
+        <v>9.803183046533746</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.45958150416347</v>
+        <v>17.21051652810857</v>
       </c>
       <c r="O19">
-        <v>15.86198974704923</v>
+        <v>22.06952474729225</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.59395556676828</v>
+        <v>17.76693874412538</v>
       </c>
       <c r="C20">
-        <v>12.24047907996356</v>
+        <v>10.41787834463449</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.169931538906135</v>
+        <v>11.61807418577883</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.054183270641893</v>
+        <v>3.625119948145782</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.000303930492505</v>
+        <v>9.816861294515819</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.40665205243515</v>
+        <v>17.19301356860947</v>
       </c>
       <c r="O20">
-        <v>15.97851129322655</v>
+        <v>22.05603968239163</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.19686577349875</v>
+        <v>18.3811336513058</v>
       </c>
       <c r="C21">
-        <v>12.73192432089994</v>
+        <v>10.60841742901983</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.211488990134702</v>
+        <v>11.58472942839127</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.046921056704064</v>
+        <v>3.622659233016345</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.33514884433801</v>
+        <v>9.864651245858383</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.23382334087501</v>
+        <v>17.13646340795262</v>
       </c>
       <c r="O21">
-        <v>16.39352896495917</v>
+        <v>22.01824666928507</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20197948615596</v>
+        <v>18.77325000138203</v>
       </c>
       <c r="C22">
-        <v>13.04380125576147</v>
+        <v>10.73051525062641</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.244558507814173</v>
+        <v>11.564770162084</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.042237130297161</v>
+        <v>3.621111045617647</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.551260169209437</v>
+        <v>9.89721888954714</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.1247259367691</v>
+        <v>17.10118352658284</v>
       </c>
       <c r="O22">
-        <v>16.68259184642039</v>
+        <v>21.99916991461622</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.66938334174343</v>
+        <v>18.56485863622052</v>
       </c>
       <c r="C23">
-        <v>12.87820984169765</v>
+        <v>10.66557951426973</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.22635368265188</v>
+        <v>11.57525489945887</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.044731698587033</v>
+        <v>3.62193186668166</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.436179633590367</v>
+        <v>9.879716952074352</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.18259182370173</v>
+        <v>17.11985966567386</v>
       </c>
       <c r="O23">
-        <v>16.52666474771992</v>
+        <v>22.00883568164874</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.56703198959081</v>
+        <v>17.75675197356493</v>
       </c>
       <c r="C24">
-        <v>12.23229225385691</v>
+        <v>10.41472482374845</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.169348860086711</v>
+        <v>11.61865010984826</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.054303101223134</v>
+        <v>3.625161184594012</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.994788032607457</v>
+        <v>9.816103175738398</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.40954014102282</v>
+        <v>17.19396624594844</v>
       </c>
       <c r="O24">
-        <v>15.97202479901481</v>
+        <v>22.05675200613475</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.11351254238295</v>
+        <v>16.84938040110588</v>
       </c>
       <c r="C25">
-        <v>11.49699843346846</v>
+        <v>10.13452281185079</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.1317731897743</v>
+        <v>11.67331605391826</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.064930476235391</v>
+        <v>3.628904030105664</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.508477303854328</v>
+        <v>9.753416010170563</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.67013477473404</v>
+        <v>17.28113387325007</v>
       </c>
       <c r="O25">
-        <v>15.44826311029927</v>
+        <v>22.13242937661439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.15576752824467</v>
+        <v>21.14331917976495</v>
       </c>
       <c r="C2">
-        <v>9.920862905568981</v>
+        <v>10.92438226347137</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.72031136012316</v>
+        <v>7.123019771446129</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.631885520300537</v>
+        <v>2.073053342860805</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.712552853149091</v>
+        <v>7.1436847674233</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.35157256621244</v>
+        <v>11.87494098389677</v>
       </c>
       <c r="O2">
-        <v>22.20859199889635</v>
+        <v>15.12382791420532</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.67285348670882</v>
+        <v>19.70414093352632</v>
       </c>
       <c r="C3">
-        <v>9.771982714641043</v>
+        <v>10.51817350584833</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.75636112744111</v>
+        <v>7.128039864513867</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.634048106775754</v>
+        <v>2.078761181007014</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.68824903374883</v>
+        <v>6.893590597525106</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.4032326530195</v>
+        <v>12.0215540978262</v>
       </c>
       <c r="O3">
-        <v>22.27284906520507</v>
+        <v>14.94029811703076</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.37117320656519</v>
+        <v>18.76861093025975</v>
       </c>
       <c r="C4">
-        <v>9.678735950586361</v>
+        <v>10.26037520366386</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.78056535155947</v>
+        <v>7.136240934913713</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.635446395201351</v>
+        <v>2.082371096371437</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.675024872996669</v>
+        <v>6.739143291161108</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.4368938538647</v>
+        <v>12.11536294976191</v>
       </c>
       <c r="O4">
-        <v>22.31849814783111</v>
+        <v>14.84479332507883</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.24712734068469</v>
+        <v>18.37424865118829</v>
       </c>
       <c r="C5">
-        <v>9.640304344299116</v>
+        <v>10.15331104489149</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.79094878139155</v>
+        <v>7.140827917182785</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.636033981710043</v>
+        <v>2.083869359245327</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.670066858221071</v>
+        <v>6.676069820044726</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.45110024810711</v>
+        <v>12.15453467891431</v>
       </c>
       <c r="O5">
-        <v>22.33865207569072</v>
+        <v>14.81007098006591</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22646849594758</v>
+        <v>18.30796990444903</v>
       </c>
       <c r="C6">
-        <v>9.633897508463903</v>
+        <v>10.1354149187497</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.79270433787227</v>
+        <v>7.141663542567883</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.636132625102537</v>
+        <v>2.084119807447496</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.669269716163917</v>
+        <v>6.665591094638634</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.45348878195582</v>
+        <v>12.16109589756712</v>
       </c>
       <c r="O6">
-        <v>22.34209214118792</v>
+        <v>14.80455492088691</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.36950450765208</v>
+        <v>18.76334567942384</v>
       </c>
       <c r="C7">
-        <v>9.678219362879688</v>
+        <v>10.25893929397032</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.78070328113402</v>
+        <v>7.136297811399574</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.635454247561832</v>
+        <v>2.082391191436894</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.674956257825491</v>
+        <v>6.738293084385129</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.43708346435701</v>
+        <v>12.11588742202638</v>
       </c>
       <c r="O7">
-        <v>22.31876367708622</v>
+        <v>14.84430822987669</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.99044218978649</v>
+        <v>20.65780495183635</v>
       </c>
       <c r="C8">
-        <v>9.869926333877933</v>
+        <v>10.78611713980077</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.73231156404388</v>
+        <v>7.123662966835973</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.632616592245702</v>
+        <v>2.074999999332473</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.703822789181855</v>
+        <v>7.057687442405994</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.36898251837905</v>
+        <v>11.92470139116179</v>
       </c>
       <c r="O8">
-        <v>22.22945843270647</v>
+        <v>15.05691016138582</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.15936900668395</v>
+        <v>23.96515694241746</v>
       </c>
       <c r="C9">
-        <v>10.23011502069406</v>
+        <v>11.7496844433693</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.65385309216506</v>
+        <v>7.14138103468788</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.627608358593055</v>
+        <v>2.061306718891747</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.773722445019393</v>
+        <v>7.673491441224478</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.25080183104059</v>
+        <v>11.58030561266814</v>
       </c>
       <c r="O9">
-        <v>22.10374819900287</v>
+        <v>15.61497152069819</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.97911894639157</v>
+        <v>26.15209367263752</v>
       </c>
       <c r="C10">
-        <v>10.48361041841379</v>
+        <v>12.41071790373417</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.6062527306</v>
+        <v>7.182862945699061</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.624264362688184</v>
+        <v>2.051683203652309</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.832912350592995</v>
+        <v>8.115474578938459</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.17328456520564</v>
+        <v>11.34666230300931</v>
       </c>
       <c r="O10">
-        <v>22.04185015441163</v>
+        <v>16.11658860992328</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.3418640428329</v>
+        <v>27.0954866656947</v>
       </c>
       <c r="C11">
-        <v>10.59620989246014</v>
+        <v>12.70061830414503</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.58678330432595</v>
+        <v>7.208456330213001</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.6228151793917</v>
+        <v>2.047387884239391</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.861476087574347</v>
+        <v>8.313606308029962</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.14002985199509</v>
+        <v>11.24480038350262</v>
       </c>
       <c r="O11">
-        <v>22.0203682983644</v>
+        <v>16.36560331118535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.47764137718035</v>
+        <v>27.44543226801229</v>
       </c>
       <c r="C12">
-        <v>10.6384336906295</v>
+        <v>12.80880205016232</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.57972517747155</v>
+        <v>7.219158392030836</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.622276708562183</v>
+        <v>2.045772132030375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.872521969165886</v>
+        <v>8.388168733938345</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.12772510623854</v>
+        <v>11.20688675616868</v>
       </c>
       <c r="O12">
-        <v>22.01319802132613</v>
+        <v>16.46295392392186</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.44847170480014</v>
+        <v>27.37038807148388</v>
       </c>
       <c r="C13">
-        <v>10.62935888259633</v>
+        <v>12.78557425064488</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.58123127626395</v>
+        <v>7.216807883721262</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.622392220474278</v>
+        <v>2.046119651041715</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.870132938429874</v>
+        <v>8.372131711213695</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.13036235122462</v>
+        <v>11.21502240542892</v>
       </c>
       <c r="O13">
-        <v>22.01469930986444</v>
+        <v>16.44185102652208</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.35306698854416</v>
+        <v>27.12442253817589</v>
       </c>
       <c r="C14">
-        <v>10.59969212657064</v>
+        <v>12.70955081992491</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.58619632208673</v>
+        <v>7.209316297010687</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.622770672875829</v>
+        <v>2.047254745438847</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.86238027726151</v>
+        <v>8.319750161870441</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.1390117632535</v>
+        <v>11.24166784826852</v>
       </c>
       <c r="O14">
-        <v>22.01975904297067</v>
+        <v>16.37355088151979</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.29441876735857</v>
+        <v>26.97281439718172</v>
       </c>
       <c r="C15">
-        <v>10.58146560691394</v>
+        <v>12.66277546243744</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.58927852857412</v>
+        <v>7.204860355211956</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.62300382615839</v>
+        <v>2.047951395961509</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.857661237972652</v>
+        <v>8.287603123726795</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.14434727577392</v>
+        <v>11.25807555675026</v>
       </c>
       <c r="O15">
-        <v>22.02298399689547</v>
+        <v>16.33211444314719</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.95519721768602</v>
+        <v>26.08941395707645</v>
       </c>
       <c r="C16">
-        <v>10.47619498619731</v>
+        <v>12.39155102778459</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.60756909314955</v>
+        <v>7.181329383524194</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.624360514893787</v>
+        <v>2.051965482928885</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.831078086915003</v>
+        <v>8.102463252602371</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.1754981906053</v>
+        <v>11.35341013266502</v>
       </c>
       <c r="O16">
-        <v>22.04338877230596</v>
+        <v>16.10073924781918</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.74439972444802</v>
+        <v>25.53436888188635</v>
       </c>
       <c r="C17">
-        <v>10.41090120647135</v>
+        <v>12.22236334747679</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.61934950958955</v>
+        <v>7.168647023539451</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.625211207305802</v>
+        <v>2.054448382482731</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.815185448975198</v>
+        <v>7.988101233793629</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.1951221336526</v>
+        <v>11.41304317644533</v>
       </c>
       <c r="O17">
-        <v>22.05761962391168</v>
+        <v>15.96417704695733</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.62220458692905</v>
+        <v>25.21027201978638</v>
       </c>
       <c r="C18">
-        <v>10.37309161794066</v>
+        <v>12.12403570026083</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.626330857952</v>
+        <v>7.161982691133605</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.625707284797877</v>
+        <v>2.055884311065844</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.806198982674061</v>
+        <v>7.922049662714825</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.20659837545528</v>
+        <v>11.44775730612178</v>
       </c>
       <c r="O18">
-        <v>22.06643296385602</v>
+        <v>15.88758743557746</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.58067226922737</v>
+        <v>25.09970241725041</v>
       </c>
       <c r="C19">
-        <v>10.36024702509129</v>
+        <v>12.09057066850663</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.62872991478342</v>
+        <v>7.159833167358347</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.625876414488105</v>
+        <v>2.056371867918509</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.803183046533746</v>
+        <v>7.899640258463969</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.21051652810857</v>
+        <v>11.45958150416353</v>
       </c>
       <c r="O19">
-        <v>22.06952474729225</v>
+        <v>15.86198974704934</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.76693874412538</v>
+        <v>25.59395556676833</v>
       </c>
       <c r="C20">
-        <v>10.41787834463449</v>
+        <v>12.24047907996338</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.61807418577883</v>
+        <v>7.169931538906146</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.625119948145782</v>
+        <v>2.054183270641891</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.816861294515819</v>
+        <v>8.000303930492525</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.19301356860947</v>
+        <v>11.40665205243515</v>
       </c>
       <c r="O20">
-        <v>22.05603968239163</v>
+        <v>15.97851129322654</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.3811336513058</v>
+        <v>27.1968657734988</v>
       </c>
       <c r="C21">
-        <v>10.60841742901983</v>
+        <v>12.73192432089994</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.58472942839127</v>
+        <v>7.211488990134756</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.622659233016345</v>
+        <v>2.046921056704062</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.864651245858383</v>
+        <v>8.335148844338015</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.13646340795262</v>
+        <v>11.23382334087501</v>
       </c>
       <c r="O21">
-        <v>22.01824666928507</v>
+        <v>16.39352896495915</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.77325000138203</v>
+        <v>28.20197948615597</v>
       </c>
       <c r="C22">
-        <v>10.73051525062641</v>
+        <v>13.04380125576136</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.564770162084</v>
+        <v>7.244558507814093</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.621111045617647</v>
+        <v>2.042237130297162</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.89721888954714</v>
+        <v>8.551260169209433</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.10118352658284</v>
+        <v>11.12472593676906</v>
       </c>
       <c r="O22">
-        <v>21.99916991461622</v>
+        <v>16.68259184642039</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.56485863622052</v>
+        <v>27.66938334174344</v>
       </c>
       <c r="C23">
-        <v>10.66557951426973</v>
+        <v>12.87820984169776</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.57525489945887</v>
+        <v>7.226353682651866</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.62193186668166</v>
+        <v>2.044731698587166</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.879716952074352</v>
+        <v>8.436179633590347</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.11985966567386</v>
+        <v>11.18259182370173</v>
       </c>
       <c r="O23">
-        <v>22.00883568164874</v>
+        <v>16.52666474771991</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.75675197356493</v>
+        <v>25.56703198959086</v>
       </c>
       <c r="C24">
-        <v>10.41472482374845</v>
+        <v>12.232292253857</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.61865010984826</v>
+        <v>7.169348860086709</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.625161184594012</v>
+        <v>2.054303101223134</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.816103175738398</v>
+        <v>7.994788032607445</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.19396624594844</v>
+        <v>11.40954014102278</v>
       </c>
       <c r="O24">
-        <v>22.05675200613475</v>
+        <v>15.97202479901474</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.84938040110588</v>
+        <v>23.11351254238293</v>
       </c>
       <c r="C25">
-        <v>10.13452281185079</v>
+        <v>11.49699843346819</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.67331605391826</v>
+        <v>7.131773189774352</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.628904030105664</v>
+        <v>2.064930476235256</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.753416010170563</v>
+        <v>7.508477303854362</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.28113387325007</v>
+        <v>11.67013477473416</v>
       </c>
       <c r="O25">
-        <v>22.13242937661439</v>
+        <v>15.44826311029943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14331917976495</v>
+        <v>20.41073353436135</v>
       </c>
       <c r="C2">
-        <v>10.92438226347137</v>
+        <v>16.34135914445402</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.123019771446129</v>
+        <v>13.46105744456325</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.073053342860805</v>
+        <v>27.32306667876905</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.007616283263796</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.930516210012243</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.518150355942826</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.54018839070713</v>
       </c>
       <c r="L2">
-        <v>7.1436847674233</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.87494098389677</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.12382791420532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.74467771828327</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70414093352632</v>
+        <v>19.09150139082913</v>
       </c>
       <c r="C3">
-        <v>10.51817350584833</v>
+        <v>15.32684816389033</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.128039864513867</v>
+        <v>12.77034172895544</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.078761181007014</v>
+        <v>26.32099229617204</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.770050131425123</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.732584506606364</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.460460217524748</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.64587183072313</v>
       </c>
       <c r="L3">
-        <v>6.893590597525106</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.0215540978262</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.94029811703076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.67464377877453</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76861093025975</v>
+        <v>18.23308574334258</v>
       </c>
       <c r="C4">
-        <v>10.26037520366386</v>
+        <v>14.67381542599918</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.136240934913713</v>
+        <v>12.32664267387807</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.082371096371437</v>
+        <v>25.69990715346683</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.619469404849973</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.608068549827103</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.428496141522883</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.71573711597632</v>
       </c>
       <c r="L4">
-        <v>6.739143291161108</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.11536294976191</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.84479332507883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.98346909772054</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37424865118829</v>
+        <v>17.87042474782595</v>
       </c>
       <c r="C5">
-        <v>10.15331104489149</v>
+        <v>14.40999334376876</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.140827917182785</v>
+        <v>12.13909655515265</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.083869359245327</v>
+        <v>25.4026497283087</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.564546386468169</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.557097560820344</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.408622267679263</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.73161927588732</v>
       </c>
       <c r="L5">
-        <v>6.676069820044726</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.15453467891431</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.81007098006591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.69473084344725</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30796990444903</v>
+        <v>17.80867183383207</v>
       </c>
       <c r="C6">
-        <v>10.1354149187497</v>
+        <v>14.37778031446977</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.141663542567883</v>
+        <v>12.10538369753612</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.084119807447496</v>
+        <v>25.30065895132785</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.575579794571083</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.549461330781564</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.395990833431213</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.7175644821307</v>
       </c>
       <c r="L6">
-        <v>6.665591094638634</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.16109589756712</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.80455492088691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.64802698072076</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76334567942384</v>
+        <v>18.22612267765955</v>
       </c>
       <c r="C7">
-        <v>10.25893929397032</v>
+        <v>14.70246648714962</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.136297811399574</v>
+        <v>12.31803931633553</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.082391191436894</v>
+        <v>25.55403804773936</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.617912050170867</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.609342506770485</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.402671666866546</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.6700818970042</v>
       </c>
       <c r="L7">
-        <v>6.738293084385129</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.11588742202638</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.84430822987669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.98428159253328</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65780495183635</v>
+        <v>19.96329935145884</v>
       </c>
       <c r="C8">
-        <v>10.78611713980077</v>
+        <v>16.03731882171028</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.123662966835973</v>
+        <v>13.21948962787133</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.074999999332473</v>
+        <v>26.79951259092373</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.925777731903428</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.864734679591604</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.464100700854381</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.51466440543949</v>
       </c>
       <c r="L8">
-        <v>7.057687442405994</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.92470139116179</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.05691016138582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.3885693487708</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.96515694241746</v>
+        <v>22.99090419648583</v>
       </c>
       <c r="C9">
-        <v>11.7496844433693</v>
+        <v>18.36438464584652</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.14138103468788</v>
+        <v>14.83991100678038</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.061306718891747</v>
+        <v>29.42323604320065</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.494442591008373</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.341010981297433</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.658916871210735</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.33668363346566</v>
       </c>
       <c r="L9">
-        <v>7.673491441224478</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.58030561266814</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.61497152069819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.86157725055879</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.15209367263752</v>
+        <v>25.04600152174149</v>
       </c>
       <c r="C10">
-        <v>12.41071790373417</v>
+        <v>19.93319729873776</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.182862945699061</v>
+        <v>15.42368959992761</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.051683203652309</v>
+        <v>30.64084679451589</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.867424172223339</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.672907696602556</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.688257407496806</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.01374569005746</v>
       </c>
       <c r="L10">
-        <v>8.115474578938459</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.34666230300931</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.11658860992328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.24579409875668</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.0954866656947</v>
+        <v>26.4616346734059</v>
       </c>
       <c r="C11">
-        <v>12.70061830414503</v>
+        <v>20.5825405323732</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.208456330213001</v>
+        <v>11.68348250846439</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.047387884239391</v>
+        <v>25.84583358695083</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.485919442159569</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.775386096422646</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.632964342803579</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.15422648718494</v>
       </c>
       <c r="L11">
-        <v>8.313606308029962</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.24480038350262</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.36560331118535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.56775972895771</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.44543226801229</v>
+        <v>27.25198851498283</v>
       </c>
       <c r="C12">
-        <v>12.80880205016232</v>
+        <v>20.77911913110902</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.219158392030836</v>
+        <v>9.285490394533049</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.045772132030375</v>
+        <v>21.68207088502721</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.55255973887241</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.799855215934631</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.796912537959506</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.913264604771236</v>
       </c>
       <c r="L12">
-        <v>8.388168733938345</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.20688675616868</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.46295392392186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.84241744196013</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.37038807148388</v>
+        <v>27.6321206856253</v>
       </c>
       <c r="C13">
-        <v>12.78557425064488</v>
+        <v>20.68330864249761</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.216807883721262</v>
+        <v>8.450236397350039</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.046119651041715</v>
+        <v>17.45992350357061</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.761191342023177</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.767644704962924</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.052857876540473</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.095625105208963</v>
       </c>
       <c r="L13">
-        <v>8.372131711213695</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.21502240542892</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.44185102652208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.92864132572517</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.12442253817589</v>
+        <v>27.71863169108584</v>
       </c>
       <c r="C14">
-        <v>12.70955081992491</v>
+        <v>20.49134374486048</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.209316297010687</v>
+        <v>9.048643147677085</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.047254745438847</v>
+        <v>14.4210134336983</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.656630613037094</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.721077358328313</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.58978492851204</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.803887810873302</v>
       </c>
       <c r="L14">
-        <v>8.319750161870441</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.24166784826852</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.37355088151979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.47865802938176</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.97281439718172</v>
+        <v>27.65083564614632</v>
       </c>
       <c r="C15">
-        <v>12.66277546243744</v>
+        <v>20.39045711557331</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.204860355211956</v>
+        <v>9.320875711808926</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.047951395961509</v>
+        <v>13.62915218649204</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.8608883187868</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.697278446075111</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.490123999404254</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.79558347017689</v>
       </c>
       <c r="L15">
-        <v>8.287603123726795</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.25807555675026</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.33211444314719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.08261562378225</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.08941395707645</v>
+        <v>26.7703412826899</v>
       </c>
       <c r="C16">
-        <v>12.39155102778459</v>
+        <v>19.77837862546849</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.181329383524194</v>
+        <v>9.094325160199039</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.051965482928885</v>
+        <v>13.66090872296631</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.583917479698356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.563284996217867</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.62449011291017</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.120082537563512</v>
       </c>
       <c r="L16">
-        <v>8.102463252602371</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.35341013266502</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.10073924781918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.75176096263253</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.53436888188635</v>
+        <v>26.02909444473573</v>
       </c>
       <c r="C17">
-        <v>12.22236334747679</v>
+        <v>19.40660396308612</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.168647023539451</v>
+        <v>8.399533521572708</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.054448382482731</v>
+        <v>15.3324137414984</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.844591342933223</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.484757058939657</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.95796248315212</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.474615177060304</v>
       </c>
       <c r="L17">
-        <v>7.988101233793629</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.41304317644533</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.96417704695733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.30508277544408</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.21027201978638</v>
+        <v>25.33932550402373</v>
       </c>
       <c r="C18">
-        <v>12.12403570026083</v>
+        <v>19.18813509410309</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.161982691133605</v>
+        <v>8.283632131457502</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.055884311065844</v>
+        <v>18.7178627462685</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.675028285157436</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.447176089901839</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.55246951442042</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.09809239662104</v>
       </c>
       <c r="L18">
-        <v>7.922049662714825</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.44775730612178</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.88758743557746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.68551177774819</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.09970241725041</v>
+        <v>24.75430889376487</v>
       </c>
       <c r="C19">
-        <v>12.09057066850663</v>
+        <v>19.16677814221137</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.159833167358347</v>
+        <v>10.13109152555411</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.056371867918509</v>
+        <v>23.02118069376274</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.437438037139949</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.458083340076615</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.325504055929164</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.08434463371877</v>
       </c>
       <c r="L19">
-        <v>7.899640258463969</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.45958150416353</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.86198974704934</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.61467050975796</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.59395556676833</v>
+        <v>24.52006359694558</v>
       </c>
       <c r="C20">
-        <v>12.24047907996338</v>
+        <v>19.60900914799742</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.169931538906146</v>
+        <v>15.23455295796452</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.054183270641891</v>
+        <v>29.921556819436</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.76668696561681</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.592053045079129</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.598296701785818</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.94557866453528</v>
       </c>
       <c r="L20">
-        <v>8.000303930492525</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.40665205243515</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.97851129322654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.89037370708862</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.1968657734988</v>
+        <v>25.93009138115317</v>
       </c>
       <c r="C21">
-        <v>12.73192432089994</v>
+        <v>20.76050876454684</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.211488990134756</v>
+        <v>16.44671270448253</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.046921056704062</v>
+        <v>31.87277255978238</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.086082012436598</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.851862988398134</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.834511099303926</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.05551427507813</v>
       </c>
       <c r="L21">
-        <v>8.335148844338015</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.23382334087501</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.39352896495915</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.31161016121721</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20197948615597</v>
+        <v>26.8447561298795</v>
       </c>
       <c r="C22">
-        <v>13.04380125576136</v>
+        <v>21.4533569691908</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.244558507814093</v>
+        <v>16.96468410436312</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.042237130297162</v>
+        <v>32.96805288673195</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.279254918468023</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.014550316126624</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.961457705303932</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.09260477261793</v>
       </c>
       <c r="L22">
-        <v>8.551260169209433</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.12472593676906</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.68259184642039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.06796038337764</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.66938334174344</v>
+        <v>26.36213519371871</v>
       </c>
       <c r="C23">
-        <v>12.87820984169776</v>
+        <v>21.05801742801365</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.226353682651866</v>
+        <v>16.69518382170559</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.044731698587166</v>
+        <v>32.51773813818799</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.177084923517924</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.925736395159412</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.921285391660769</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.12604648936662</v>
       </c>
       <c r="L23">
-        <v>8.436179633590347</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.18259182370173</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.52666474771991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.66309912091425</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.56703198959086</v>
+        <v>24.44948862051917</v>
       </c>
       <c r="C24">
-        <v>12.232292253857</v>
+        <v>19.55140398821558</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.169348860086709</v>
+        <v>15.63126547866787</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.054303101223134</v>
+        <v>30.58866618067574</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.78288449319184</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.588879777052811</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.735211995003413</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.18682079071882</v>
       </c>
       <c r="L24">
-        <v>7.994788032607445</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.40954014102278</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.97202479901474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.07454152681033</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.11351254238293</v>
+        <v>22.2093204464183</v>
       </c>
       <c r="C25">
-        <v>11.49699843346819</v>
+        <v>17.80933566154254</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.131773189774352</v>
+        <v>14.40919935504098</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.064930476235256</v>
+        <v>28.49215702890449</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.343192042490682</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.217440234759499</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.558110854177052</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.29626619817883</v>
       </c>
       <c r="L25">
-        <v>7.508477303854362</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.67013477473416</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.44826311029943</v>
+        <v>19.22907498262382</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.41073353436135</v>
+        <v>20.40243865873074</v>
       </c>
       <c r="C2">
-        <v>16.34135914445402</v>
+        <v>16.71251080553036</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.46105744456325</v>
+        <v>13.35959434410691</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>27.32306667876905</v>
+        <v>24.52330044796314</v>
       </c>
       <c r="H2">
-        <v>2.007616283263796</v>
+        <v>2.000338880350665</v>
       </c>
       <c r="I2">
-        <v>2.930516210012243</v>
+        <v>2.946437198478804</v>
       </c>
       <c r="J2">
-        <v>9.518150355942826</v>
+        <v>9.644704439932235</v>
       </c>
       <c r="K2">
-        <v>13.54018839070713</v>
+        <v>12.72914111518445</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.41586897975535</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.450214559379671</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.74467771828327</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.82546823494037</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.09150139082913</v>
+        <v>19.10317730658107</v>
       </c>
       <c r="C3">
-        <v>15.32684816389033</v>
+        <v>15.61460794872611</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.77034172895544</v>
+        <v>12.71242127133455</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>26.32099229617204</v>
+        <v>23.85087120737563</v>
       </c>
       <c r="H3">
-        <v>1.770050131425123</v>
+        <v>1.776968154455157</v>
       </c>
       <c r="I3">
-        <v>2.732584506606364</v>
+        <v>2.777364484038408</v>
       </c>
       <c r="J3">
-        <v>9.460460217524748</v>
+        <v>9.610232070599153</v>
       </c>
       <c r="K3">
-        <v>13.64587183072313</v>
+        <v>12.93002169609605</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.62468294189052</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.544595145991376</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.67464377877453</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.74880099634802</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.23308574334258</v>
+        <v>18.25778125630793</v>
       </c>
       <c r="C4">
-        <v>14.67381542599918</v>
+        <v>14.90634947649798</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.32664267387807</v>
+        <v>12.2972074705291</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>25.69990715346683</v>
+        <v>23.44085623890771</v>
       </c>
       <c r="H4">
-        <v>1.619469404849973</v>
+        <v>1.635280803682383</v>
       </c>
       <c r="I4">
-        <v>2.608068549827103</v>
+        <v>2.671105759122401</v>
       </c>
       <c r="J4">
-        <v>9.428496141522883</v>
+        <v>9.589354893528691</v>
       </c>
       <c r="K4">
-        <v>13.71573711597632</v>
+        <v>13.05597831780938</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.75418469571121</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.625671050987604</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.98346909772054</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.05295694823916</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.87042474782595</v>
+        <v>17.9007065753471</v>
       </c>
       <c r="C5">
-        <v>14.40999334376876</v>
+        <v>14.617976332343</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.13909655515265</v>
+        <v>12.1219634254804</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>25.4026497283087</v>
+        <v>23.23704979767724</v>
       </c>
       <c r="H5">
-        <v>1.564546386468169</v>
+        <v>1.576185788544581</v>
       </c>
       <c r="I5">
-        <v>2.557097560820344</v>
+        <v>2.628004692316835</v>
       </c>
       <c r="J5">
-        <v>9.408622267679263</v>
+        <v>9.574579001161482</v>
       </c>
       <c r="K5">
-        <v>13.73161927588732</v>
+        <v>13.09698464564283</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.79760404854692</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.657657756985619</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.69473084344725</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.76198360038911</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.80867183383207</v>
+        <v>17.83997539502989</v>
       </c>
       <c r="C6">
-        <v>14.37778031446977</v>
+        <v>14.58035613361059</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.10538369753612</v>
+        <v>12.09061401719811</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>25.30065895132785</v>
+        <v>23.15747787068132</v>
       </c>
       <c r="H6">
-        <v>1.575579794571083</v>
+        <v>1.566065542281055</v>
       </c>
       <c r="I6">
-        <v>2.549461330781564</v>
+        <v>2.622076529792004</v>
       </c>
       <c r="J6">
-        <v>9.395990833431213</v>
+        <v>9.564405123589296</v>
       </c>
       <c r="K6">
-        <v>13.7175644821307</v>
+        <v>13.09051278269109</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.7930356104713</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.655231531954286</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.64802698072076</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.71466824633347</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.22612267765955</v>
+        <v>18.25109779601185</v>
       </c>
       <c r="C7">
-        <v>14.70246648714962</v>
+        <v>14.91750937239531</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.31803931633553</v>
+        <v>12.28972956073528</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>25.55403804773936</v>
+        <v>23.36329469931756</v>
       </c>
       <c r="H7">
-        <v>1.617912050170867</v>
+        <v>1.63328077872566</v>
       </c>
       <c r="I7">
-        <v>2.609342506770485</v>
+        <v>2.672704583317078</v>
       </c>
       <c r="J7">
-        <v>9.402671666866546</v>
+        <v>9.515872657250005</v>
       </c>
       <c r="K7">
-        <v>13.6700818970042</v>
+        <v>13.00359294728762</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.70884394426787</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.592495720430352</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.98428159253328</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.05113239973998</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.96329935145884</v>
+        <v>19.96202374394328</v>
       </c>
       <c r="C8">
-        <v>16.03731882171028</v>
+        <v>16.33400994412925</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.21948962787133</v>
+        <v>13.13445483377405</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>26.79951259092373</v>
+        <v>24.29237618651064</v>
       </c>
       <c r="H8">
-        <v>1.925777731903428</v>
+        <v>1.921690155238884</v>
       </c>
       <c r="I8">
-        <v>2.864734679591604</v>
+        <v>2.889310117157597</v>
       </c>
       <c r="J8">
-        <v>9.464100700854381</v>
+        <v>9.435484897174666</v>
       </c>
       <c r="K8">
-        <v>13.51466440543949</v>
+        <v>12.69602282232947</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.40617301480333</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.403185151264001</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.3885693487708</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.46027130046719</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.99090419648583</v>
+        <v>22.94284107204764</v>
       </c>
       <c r="C9">
-        <v>18.36438464584652</v>
+        <v>18.84524879193436</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.83991100678038</v>
+        <v>14.65479141709184</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>29.42323604320065</v>
+        <v>26.1630359942406</v>
       </c>
       <c r="H9">
-        <v>2.494442591008373</v>
+        <v>2.455358400078976</v>
       </c>
       <c r="I9">
-        <v>3.341010981297433</v>
+        <v>3.294772386389875</v>
       </c>
       <c r="J9">
-        <v>9.658916871210735</v>
+        <v>9.505009783338387</v>
       </c>
       <c r="K9">
-        <v>13.33668363346566</v>
+        <v>12.23978038160973</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.92464841734127</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.312787081881722</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.86157725055879</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.94603821472224</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.04600152174149</v>
+        <v>24.96733171610758</v>
       </c>
       <c r="C10">
-        <v>19.93319729873776</v>
+        <v>20.44484461669638</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.42368959992761</v>
+        <v>15.17627055474538</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>30.64084679451589</v>
+        <v>27.25610817504231</v>
       </c>
       <c r="H10">
-        <v>2.867424172223339</v>
+        <v>2.801410480038271</v>
       </c>
       <c r="I10">
-        <v>3.672907696602556</v>
+        <v>3.574905456391388</v>
       </c>
       <c r="J10">
-        <v>9.688257407496806</v>
+        <v>9.180781953752362</v>
       </c>
       <c r="K10">
-        <v>13.01374569005746</v>
+        <v>11.67603620062584</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.42050066003929</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.14746885125498</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.24579409875668</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.32379256310031</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.4616346734059</v>
+        <v>26.38351590380936</v>
       </c>
       <c r="C11">
-        <v>20.5825405323732</v>
+        <v>20.80496675766313</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.68348250846439</v>
+        <v>11.41258369453777</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>25.84583358695083</v>
+        <v>23.81159765075583</v>
       </c>
       <c r="H11">
-        <v>3.485919442159569</v>
+        <v>3.424622295437123</v>
       </c>
       <c r="I11">
-        <v>3.775386096422646</v>
+        <v>3.659791719833446</v>
       </c>
       <c r="J11">
-        <v>8.632964342803579</v>
+        <v>7.900250264984096</v>
       </c>
       <c r="K11">
-        <v>11.15422648718494</v>
+        <v>10.18669327744131</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.485078602603544</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.851903534154714</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.56775972895771</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.60093429746476</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.25198851498283</v>
+        <v>27.17933952564275</v>
       </c>
       <c r="C12">
-        <v>20.77911913110902</v>
+        <v>20.78944087477294</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.285490394533049</v>
+        <v>8.98733732665014</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>21.68207088502721</v>
+        <v>20.63466449944897</v>
       </c>
       <c r="H12">
-        <v>4.55255973887241</v>
+        <v>4.505440702116601</v>
       </c>
       <c r="I12">
-        <v>3.799855215934631</v>
+        <v>3.678720608100863</v>
       </c>
       <c r="J12">
-        <v>7.796912537959506</v>
+        <v>7.207225805494566</v>
       </c>
       <c r="K12">
-        <v>9.913264604771236</v>
+        <v>9.371617376129258</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.050357482529378</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.99737329970415</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.84241744196013</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.84532939064793</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.6321206856253</v>
+        <v>27.56910613421616</v>
       </c>
       <c r="C13">
-        <v>20.68330864249761</v>
+        <v>20.54449863326583</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.450236397350039</v>
+        <v>8.160393644147149</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>17.45992350357061</v>
+        <v>17.10111825918034</v>
       </c>
       <c r="H13">
-        <v>5.761191342023177</v>
+        <v>5.727087488598532</v>
       </c>
       <c r="I13">
-        <v>3.767644704962924</v>
+        <v>3.652659448055519</v>
       </c>
       <c r="J13">
-        <v>7.052857876540473</v>
+        <v>6.884001132411721</v>
       </c>
       <c r="K13">
-        <v>9.095625105208963</v>
+        <v>8.990794198292367</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.883918292758711</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.482711439106009</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.92864132572517</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.91247675529829</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.71863169108584</v>
+        <v>27.66414971379571</v>
       </c>
       <c r="C14">
-        <v>20.49134374486048</v>
+        <v>20.2724721744986</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.048643147677085</v>
+        <v>8.799354461777801</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>14.4210134336983</v>
+        <v>14.40964399740632</v>
       </c>
       <c r="H14">
-        <v>6.656630613037094</v>
+        <v>6.63001963348831</v>
       </c>
       <c r="I14">
-        <v>3.721077358328313</v>
+        <v>3.615675257629368</v>
       </c>
       <c r="J14">
-        <v>6.58978492851204</v>
+        <v>6.775967432641024</v>
       </c>
       <c r="K14">
-        <v>8.803887810873302</v>
+        <v>8.927153948027131</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.870518435982655</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.331529372157017</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.47865802938176</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.45334532168041</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.65083564614632</v>
+        <v>27.59952837445353</v>
       </c>
       <c r="C15">
-        <v>20.39045711557331</v>
+        <v>20.16229718988301</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.320875711808926</v>
+        <v>9.087917012213326</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>13.62915218649204</v>
+        <v>13.64921463977849</v>
       </c>
       <c r="H15">
-        <v>6.8608883187868</v>
+        <v>6.836393852941355</v>
       </c>
       <c r="I15">
-        <v>3.697278446075111</v>
+        <v>3.59734721345685</v>
       </c>
       <c r="J15">
-        <v>6.490123999404254</v>
+        <v>6.785450722020981</v>
       </c>
       <c r="K15">
-        <v>8.79558347017689</v>
+        <v>8.956630854153099</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.884837686989892</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.345377308371358</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.08261562378225</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.05683407501319</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.7703412826899</v>
+        <v>26.72970777522046</v>
       </c>
       <c r="C16">
-        <v>19.77837862546849</v>
+        <v>19.64895899812273</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.094325160199039</v>
+        <v>8.908880035235308</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>13.66090872296631</v>
+        <v>13.23241729245523</v>
       </c>
       <c r="H16">
-        <v>6.583917479698356</v>
+        <v>6.564959968755662</v>
       </c>
       <c r="I16">
-        <v>3.563284996217867</v>
+        <v>3.489867889190554</v>
       </c>
       <c r="J16">
-        <v>6.62449011291017</v>
+        <v>7.157041281078532</v>
       </c>
       <c r="K16">
-        <v>9.120082537563512</v>
+        <v>9.248658274664749</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.990560469502032</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.647539983496402</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.75176096263253</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.74310451265895</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.02909444473573</v>
+        <v>25.99231772497321</v>
       </c>
       <c r="C17">
-        <v>19.40660396308612</v>
+        <v>19.38237135453777</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.399533521572708</v>
+        <v>8.226225490699839</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>15.3324137414984</v>
+        <v>14.45541186826223</v>
       </c>
       <c r="H17">
-        <v>5.844591342933223</v>
+        <v>5.826867623395705</v>
       </c>
       <c r="I17">
-        <v>3.484757058939657</v>
+        <v>3.42608066457375</v>
       </c>
       <c r="J17">
-        <v>6.95796248315212</v>
+        <v>7.529413321646436</v>
       </c>
       <c r="K17">
-        <v>9.474615177060304</v>
+        <v>9.528406908588954</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.123418991661444</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.930843815404675</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.30508277544408</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.31290081281165</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33932550402373</v>
+        <v>25.30017015027862</v>
       </c>
       <c r="C18">
-        <v>19.18813509410309</v>
+        <v>19.31134084918659</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.283632131457502</v>
+        <v>8.101219735448199</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>18.7178627462685</v>
+        <v>17.20007697580708</v>
       </c>
       <c r="H18">
-        <v>4.675028285157436</v>
+        <v>4.654279725271539</v>
       </c>
       <c r="I18">
-        <v>3.447176089901839</v>
+        <v>3.393694904727012</v>
       </c>
       <c r="J18">
-        <v>7.55246951442042</v>
+        <v>8.025217600920238</v>
       </c>
       <c r="K18">
-        <v>10.09809239662104</v>
+        <v>9.968341558040187</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.384051211386456</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.359671683089527</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.68551177774819</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.71498477664934</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.75430889376487</v>
+        <v>24.70742360484843</v>
       </c>
       <c r="C19">
-        <v>19.16677814221137</v>
+        <v>19.46131651028879</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.13109152555411</v>
+        <v>9.937144298017907</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>23.02118069376274</v>
+        <v>20.72052511767089</v>
       </c>
       <c r="H19">
-        <v>3.437438037139949</v>
+        <v>3.40699935997785</v>
       </c>
       <c r="I19">
-        <v>3.458083340076615</v>
+        <v>3.403247762160492</v>
       </c>
       <c r="J19">
-        <v>8.325504055929164</v>
+        <v>8.607609626706145</v>
       </c>
       <c r="K19">
-        <v>11.08434463371877</v>
+        <v>10.62681202319342</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.80200300020045</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.99092706442449</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.61467050975796</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.66836642278365</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.52006359694558</v>
+        <v>24.4500403542142</v>
       </c>
       <c r="C20">
-        <v>19.60900914799742</v>
+        <v>20.14180898370559</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.23455295796452</v>
+        <v>15.00438711414212</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>29.921556819436</v>
+        <v>26.46491464338862</v>
       </c>
       <c r="H20">
-        <v>2.76668696561681</v>
+        <v>2.709614441814403</v>
       </c>
       <c r="I20">
-        <v>3.592053045079129</v>
+        <v>3.513494827720094</v>
       </c>
       <c r="J20">
-        <v>9.598296701785818</v>
+        <v>9.375988144179249</v>
       </c>
       <c r="K20">
-        <v>12.94557866453528</v>
+        <v>11.7675319806091</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.51431232411429</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.133791316472643</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.89037370708862</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.97428826996465</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.93009138115317</v>
+        <v>25.83460275804353</v>
       </c>
       <c r="C21">
-        <v>20.76050876454684</v>
+        <v>21.15519735247508</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.44671270448253</v>
+        <v>16.17432788909791</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>31.87277255978238</v>
+        <v>28.96092459031135</v>
       </c>
       <c r="H21">
-        <v>3.086082012436598</v>
+        <v>2.99897475029063</v>
       </c>
       <c r="I21">
-        <v>3.851862988398134</v>
+        <v>3.720379397877997</v>
       </c>
       <c r="J21">
-        <v>9.834511099303926</v>
+        <v>8.41739744457908</v>
       </c>
       <c r="K21">
-        <v>13.05551427507813</v>
+        <v>11.2802156551379</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.1092459787599</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.976579230984975</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.31161016121721</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.36542468843712</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.8447561298795</v>
+        <v>26.73365327676964</v>
       </c>
       <c r="C22">
-        <v>21.4533569691908</v>
+        <v>21.74039292236427</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.96468410436312</v>
+        <v>16.66820768609287</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>32.96805288673195</v>
+        <v>30.50800686646883</v>
       </c>
       <c r="H22">
-        <v>3.279254918468023</v>
+        <v>3.172973435687993</v>
       </c>
       <c r="I22">
-        <v>4.014550316126624</v>
+        <v>3.848036514062546</v>
       </c>
       <c r="J22">
-        <v>9.961457705303932</v>
+        <v>7.772425135894251</v>
       </c>
       <c r="K22">
-        <v>13.09260477261793</v>
+        <v>10.91623124783911</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.829464946898126</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.842453964701931</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.06796038337764</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.09921129436913</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.36213519371871</v>
+        <v>26.25896067933009</v>
       </c>
       <c r="C23">
-        <v>21.05801742801365</v>
+        <v>21.43186670863285</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.69518382170559</v>
+        <v>16.40933648239429</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>32.51773813818799</v>
+        <v>29.68683219035961</v>
       </c>
       <c r="H23">
-        <v>3.177084923517924</v>
+        <v>3.081904709053007</v>
       </c>
       <c r="I23">
-        <v>3.925736395159412</v>
+        <v>3.77778875908926</v>
       </c>
       <c r="J23">
-        <v>9.921285391660769</v>
+        <v>8.236165244350664</v>
       </c>
       <c r="K23">
-        <v>13.12604648936662</v>
+        <v>11.18903062624617</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.0227268344052</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.98977535436518</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.66309912091425</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.71092163525273</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.44948862051917</v>
+        <v>24.37819688357714</v>
       </c>
       <c r="C24">
-        <v>19.55140398821558</v>
+        <v>20.10756137314594</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.63126547866787</v>
+        <v>15.39883374288694</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>30.58866618067574</v>
+        <v>27.01410388592294</v>
       </c>
       <c r="H24">
-        <v>2.78288449319184</v>
+        <v>2.72540030284018</v>
       </c>
       <c r="I24">
-        <v>3.588879777052811</v>
+        <v>3.507802970860242</v>
       </c>
       <c r="J24">
-        <v>9.735211995003413</v>
+        <v>9.487943963616638</v>
       </c>
       <c r="K24">
-        <v>13.18682079071882</v>
+        <v>11.94277897459322</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.62911898759581</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.289859759921831</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.07454152681033</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.16194573231558</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.2093204464183</v>
+        <v>22.17387654918844</v>
       </c>
       <c r="C25">
-        <v>17.80933566154254</v>
+        <v>18.25501962924094</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.40919935504098</v>
+        <v>14.25070984977631</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>28.49215702890449</v>
+        <v>25.39115334741959</v>
       </c>
       <c r="H25">
-        <v>2.343192042490682</v>
+        <v>2.314330494490563</v>
       </c>
       <c r="I25">
-        <v>3.217440234759499</v>
+        <v>3.192913921414818</v>
       </c>
       <c r="J25">
-        <v>9.558110854177052</v>
+        <v>9.521974597824517</v>
       </c>
       <c r="K25">
-        <v>13.29626619817883</v>
+        <v>12.32043473866949</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.02564800385211</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.281202905760607</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.22907498262382</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.31217213249625</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
